--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fn1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H2">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J2">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>177.841547678879</v>
+        <v>268.231042928204</v>
       </c>
       <c r="R2">
-        <v>177.841547678879</v>
+        <v>2414.079386353836</v>
       </c>
       <c r="S2">
-        <v>0.0007685836404487977</v>
+        <v>0.001053201334869148</v>
       </c>
       <c r="T2">
-        <v>0.0007685836404487977</v>
+        <v>0.001053201334869148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H3">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J3">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>895.2851144098569</v>
+        <v>1091.811501819727</v>
       </c>
       <c r="R3">
-        <v>895.2851144098569</v>
+        <v>9826.30351637754</v>
       </c>
       <c r="S3">
-        <v>0.003869182997188162</v>
+        <v>0.004286965888022931</v>
       </c>
       <c r="T3">
-        <v>0.003869182997188162</v>
+        <v>0.004286965888022932</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H4">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J4">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>913.6575008248973</v>
+        <v>1270.726568001427</v>
       </c>
       <c r="R4">
-        <v>913.6575008248973</v>
+        <v>11436.53911201284</v>
       </c>
       <c r="S4">
-        <v>0.003948583541205587</v>
+        <v>0.004989470655829414</v>
       </c>
       <c r="T4">
-        <v>0.003948583541205587</v>
+        <v>0.004989470655829414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.412314546899</v>
+        <v>19.95578266666667</v>
       </c>
       <c r="H5">
-        <v>16.412314546899</v>
+        <v>59.867348</v>
       </c>
       <c r="I5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="J5">
-        <v>0.009751784795650554</v>
+        <v>0.0117373419656925</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>269.6683679744349</v>
+        <v>358.5163851215965</v>
       </c>
       <c r="R5">
-        <v>269.6683679744349</v>
+        <v>3226.647466094368</v>
       </c>
       <c r="S5">
-        <v>0.001165434616808007</v>
+        <v>0.001407704086971001</v>
       </c>
       <c r="T5">
-        <v>0.001165434616808007</v>
+        <v>0.001407704086971002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H6">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J6">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>17640.92298332844</v>
+        <v>22007.97232310269</v>
       </c>
       <c r="R6">
-        <v>17640.92298332844</v>
+        <v>198071.7509079242</v>
       </c>
       <c r="S6">
-        <v>0.07623935455108333</v>
+        <v>0.08641365881971824</v>
       </c>
       <c r="T6">
-        <v>0.07623935455108333</v>
+        <v>0.08641365881971826</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H7">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J7">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>88807.4578609866</v>
+        <v>89581.56763579867</v>
       </c>
       <c r="R7">
-        <v>88807.4578609866</v>
+        <v>806234.108722188</v>
       </c>
       <c r="S7">
-        <v>0.3838020988495176</v>
+        <v>0.3517394019116106</v>
       </c>
       <c r="T7">
-        <v>0.3838020988495176</v>
+        <v>0.3517394019116107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H8">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J8">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>90629.89956821298</v>
+        <v>104261.2921812044</v>
       </c>
       <c r="R8">
-        <v>90629.89956821298</v>
+        <v>938351.6296308399</v>
       </c>
       <c r="S8">
-        <v>0.3916782048558314</v>
+        <v>0.4093789104410951</v>
       </c>
       <c r="T8">
-        <v>0.3916782048558314</v>
+        <v>0.4093789104410951</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1628.01314247892</v>
+        <v>1637.343343333333</v>
       </c>
       <c r="H9">
-        <v>1628.01314247892</v>
+        <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052701</v>
       </c>
       <c r="J9">
-        <v>0.9673244906791579</v>
+        <v>0.9630320723052702</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>26749.64862016809</v>
+        <v>29415.75514526427</v>
       </c>
       <c r="R9">
-        <v>26749.64862016809</v>
+        <v>264741.7963073785</v>
       </c>
       <c r="S9">
-        <v>0.1156048324227255</v>
+        <v>0.1155001011328461</v>
       </c>
       <c r="T9">
-        <v>0.1156048324227255</v>
+        <v>0.1155001011328461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H10">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J10">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>143.7930157694603</v>
+        <v>235.233220379734</v>
       </c>
       <c r="R10">
-        <v>143.7930157694603</v>
+        <v>2117.098983417606</v>
       </c>
       <c r="S10">
-        <v>0.0006214349850956032</v>
+        <v>0.0009236363509790242</v>
       </c>
       <c r="T10">
-        <v>0.0006214349850956032</v>
+        <v>0.0009236363509790245</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H11">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J11">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>723.878914993207</v>
+        <v>957.4966894843434</v>
       </c>
       <c r="R11">
-        <v>723.878914993207</v>
+        <v>8617.47020535909</v>
       </c>
       <c r="S11">
-        <v>0.003128411212065043</v>
+        <v>0.003759582710818536</v>
       </c>
       <c r="T11">
-        <v>0.003128411212065043</v>
+        <v>0.003759582710818538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H12">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J12">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>738.7338287295108</v>
+        <v>1114.401597778794</v>
       </c>
       <c r="R12">
-        <v>738.7338287295108</v>
+        <v>10029.61438000914</v>
       </c>
       <c r="S12">
-        <v>0.003192610179218753</v>
+        <v>0.00437566523825168</v>
       </c>
       <c r="T12">
-        <v>0.003192610179218753</v>
+        <v>0.004375665238251681</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.2701060874532</v>
+        <v>17.50081933333334</v>
       </c>
       <c r="H13">
-        <v>13.2701060874532</v>
+        <v>52.502458</v>
       </c>
       <c r="I13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="J13">
-        <v>0.007884763505507309</v>
+        <v>0.01029341242216722</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>218.0391949730977</v>
+        <v>314.4116464313476</v>
       </c>
       <c r="R13">
-        <v>218.0391949730977</v>
+        <v>2829.704817882128</v>
       </c>
       <c r="S13">
-        <v>0.0009423071291279093</v>
+        <v>0.001234528122117976</v>
       </c>
       <c r="T13">
-        <v>0.0009423071291279093</v>
+        <v>0.001234528122117976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H14">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J14">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>274.262830781073</v>
+        <v>341.35612528051</v>
       </c>
       <c r="R14">
-        <v>274.262830781073</v>
+        <v>3072.20512752459</v>
       </c>
       <c r="S14">
-        <v>0.001185290657176081</v>
+        <v>0.001340324829245895</v>
       </c>
       <c r="T14">
-        <v>0.001185290657176081</v>
+        <v>0.001340324829245895</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H15">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J15">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>1380.686532696913</v>
+        <v>1389.460890615983</v>
       </c>
       <c r="R15">
-        <v>1380.686532696913</v>
+        <v>12505.14801554385</v>
       </c>
       <c r="S15">
-        <v>0.0059669582022247</v>
+        <v>0.005455677496422084</v>
       </c>
       <c r="T15">
-        <v>0.0059669582022247</v>
+        <v>0.005455677496422085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H16">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J16">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>1409.019972054353</v>
+        <v>1617.151739070233</v>
       </c>
       <c r="R16">
-        <v>1409.019972054353</v>
+        <v>14554.3656516321</v>
       </c>
       <c r="S16">
-        <v>0.006089407754941691</v>
+        <v>0.006349698944915248</v>
       </c>
       <c r="T16">
-        <v>0.006089407754941691</v>
+        <v>0.006349698944915248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.3106650614045</v>
+        <v>25.39612333333333</v>
       </c>
       <c r="H17">
-        <v>25.3106650614045</v>
+        <v>76.18836999999999</v>
       </c>
       <c r="I17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="J17">
-        <v>0.01503896101968408</v>
+        <v>0.01493717330687017</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>415.8758790512051</v>
+        <v>456.2550357284355</v>
       </c>
       <c r="R17">
-        <v>415.8758790512051</v>
+        <v>4106.29532155592</v>
       </c>
       <c r="S17">
-        <v>0.00179730440534161</v>
+        <v>0.001791472036286939</v>
       </c>
       <c r="T17">
-        <v>0.00179730440534161</v>
+        <v>0.00179147203628694</v>
       </c>
     </row>
   </sheetData>
